--- a/final_report.xlsx
+++ b/final_report.xlsx
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>37686.80420503327</v>
+        <v>36847.26332567036</v>
       </c>
       <c r="E2" t="n">
-        <v>157.0283508543053</v>
+        <v>153.5302638569598</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
